--- a/metadata/_dataset_strings_Janacek.xlsx
+++ b/metadata/_dataset_strings_Janacek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_TACR\repo\Classification-of-interpretation-differences\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8CE0EE-BDBD-4798-94BA-07D03E35C7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F69C2-5E49-4C27-AFEF-4DC9B127F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="383">
   <si>
     <t>Name</t>
   </si>
@@ -1183,6 +1183,9 @@
   </si>
   <si>
     <t>071</t>
+  </si>
+  <si>
+    <t>label_random</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H67"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1583,7 @@
     <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>308</v>
       </c>
@@ -1608,8 +1611,11 @@
       <c r="I1" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>237</v>
       </c>
@@ -1635,8 +1641,11 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>238</v>
       </c>
@@ -1662,8 +1671,11 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>239</v>
       </c>
@@ -1689,8 +1701,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>240</v>
       </c>
@@ -1716,8 +1731,11 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>241</v>
       </c>
@@ -1743,8 +1761,11 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>242</v>
       </c>
@@ -1770,8 +1791,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>243</v>
       </c>
@@ -1797,8 +1821,11 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>244</v>
       </c>
@@ -1824,8 +1851,11 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>245</v>
       </c>
@@ -1851,8 +1881,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>246</v>
       </c>
@@ -1878,8 +1911,11 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>247</v>
       </c>
@@ -1905,8 +1941,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>248</v>
       </c>
@@ -1932,8 +1971,11 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>249</v>
       </c>
@@ -1959,8 +2001,11 @@
       <c r="I14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>250</v>
       </c>
@@ -1986,8 +2031,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>251</v>
       </c>
@@ -2013,8 +2061,11 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>252</v>
       </c>
@@ -2040,8 +2091,11 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>253</v>
       </c>
@@ -2067,8 +2121,11 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
@@ -2094,8 +2151,11 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>255</v>
       </c>
@@ -2121,8 +2181,11 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>256</v>
       </c>
@@ -2148,8 +2211,11 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>257</v>
       </c>
@@ -2175,8 +2241,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>258</v>
       </c>
@@ -2202,8 +2271,11 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>259</v>
       </c>
@@ -2229,8 +2301,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>260</v>
       </c>
@@ -2256,8 +2331,11 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>261</v>
       </c>
@@ -2283,8 +2361,11 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>262</v>
       </c>
@@ -2310,8 +2391,11 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>263</v>
       </c>
@@ -2337,8 +2421,11 @@
       <c r="I28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>264</v>
       </c>
@@ -2364,8 +2451,11 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>265</v>
       </c>
@@ -2391,8 +2481,11 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>266</v>
       </c>
@@ -2418,8 +2511,11 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>267</v>
       </c>
@@ -2445,8 +2541,11 @@
       <c r="I32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>268</v>
       </c>
@@ -2472,8 +2571,11 @@
       <c r="I33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>269</v>
       </c>
@@ -2499,8 +2601,11 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>270</v>
       </c>
@@ -2526,8 +2631,11 @@
       <c r="I35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>271</v>
       </c>
@@ -2553,8 +2661,11 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>272</v>
       </c>
@@ -2580,8 +2691,11 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>273</v>
       </c>
@@ -2607,8 +2721,11 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>274</v>
       </c>
@@ -2634,8 +2751,11 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>275</v>
       </c>
@@ -2661,8 +2781,11 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>276</v>
       </c>
@@ -2688,8 +2811,11 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>277</v>
       </c>
@@ -2715,8 +2841,11 @@
       <c r="I42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>278</v>
       </c>
@@ -2742,8 +2871,11 @@
       <c r="I43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>279</v>
       </c>
@@ -2769,8 +2901,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>280</v>
       </c>
@@ -2796,8 +2931,11 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>281</v>
       </c>
@@ -2823,8 +2961,11 @@
       <c r="I46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>282</v>
       </c>
@@ -2850,8 +2991,11 @@
       <c r="I47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>283</v>
       </c>
@@ -2877,8 +3021,11 @@
       <c r="I48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>284</v>
       </c>
@@ -2904,8 +3051,11 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>285</v>
       </c>
@@ -2931,8 +3081,11 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>286</v>
       </c>
@@ -2958,8 +3111,11 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>287</v>
       </c>
@@ -2985,8 +3141,11 @@
       <c r="I52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>288</v>
       </c>
@@ -3012,8 +3171,11 @@
       <c r="I53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>289</v>
       </c>
@@ -3039,8 +3201,11 @@
       <c r="I54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>290</v>
       </c>
@@ -3066,8 +3231,11 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>291</v>
       </c>
@@ -3093,8 +3261,11 @@
       <c r="I56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>292</v>
       </c>
@@ -3122,8 +3293,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>293</v>
       </c>
@@ -3149,8 +3323,11 @@
       <c r="I58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>294</v>
       </c>
@@ -3176,8 +3353,11 @@
       <c r="I59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>295</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>296</v>
       </c>
@@ -3230,8 +3413,11 @@
       <c r="I61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>297</v>
       </c>
@@ -3257,8 +3443,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>298</v>
       </c>
@@ -3284,8 +3473,11 @@
       <c r="I63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>299</v>
       </c>
@@ -3311,8 +3503,11 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>300</v>
       </c>
@@ -3338,8 +3533,11 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>301</v>
       </c>
@@ -3365,8 +3563,11 @@
       <c r="I66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>302</v>
       </c>
@@ -3392,17 +3593,20 @@
       <c r="I67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H71"/>
     </row>
   </sheetData>
@@ -3425,15 +3629,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962EF5C0-F74B-4B98-8C4F-8058A944DC4B}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H71"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>308</v>
       </c>
@@ -3461,8 +3665,11 @@
       <c r="I1" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>237</v>
       </c>
@@ -3488,8 +3695,11 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>238</v>
       </c>
@@ -3515,8 +3725,11 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>239</v>
       </c>
@@ -3542,8 +3755,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>240</v>
       </c>
@@ -3569,8 +3785,11 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>241</v>
       </c>
@@ -3596,8 +3815,11 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>242</v>
       </c>
@@ -3623,8 +3845,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>243</v>
       </c>
@@ -3650,8 +3875,11 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>244</v>
       </c>
@@ -3677,8 +3905,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>245</v>
       </c>
@@ -3704,8 +3935,11 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>246</v>
       </c>
@@ -3731,8 +3965,11 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>247</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>248</v>
       </c>
@@ -3787,8 +4027,11 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>249</v>
       </c>
@@ -3814,8 +4057,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>250</v>
       </c>
@@ -3841,8 +4087,11 @@
       <c r="I15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>303</v>
       </c>
@@ -3868,8 +4117,11 @@
       <c r="I16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>251</v>
       </c>
@@ -3895,8 +4147,11 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>252</v>
       </c>
@@ -3922,8 +4177,11 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>304</v>
       </c>
@@ -3949,8 +4207,11 @@
       <c r="I19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>254</v>
       </c>
@@ -3976,8 +4237,11 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>255</v>
       </c>
@@ -4003,8 +4267,11 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>256</v>
       </c>
@@ -4030,8 +4297,11 @@
       <c r="I22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>257</v>
       </c>
@@ -4057,8 +4327,11 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>258</v>
       </c>
@@ -4084,8 +4357,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>259</v>
       </c>
@@ -4111,8 +4387,11 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>260</v>
       </c>
@@ -4138,8 +4417,11 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>261</v>
       </c>
@@ -4165,8 +4447,11 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>262</v>
       </c>
@@ -4192,8 +4477,11 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>263</v>
       </c>
@@ -4219,8 +4507,11 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>264</v>
       </c>
@@ -4246,8 +4537,11 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>265</v>
       </c>
@@ -4273,8 +4567,11 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>266</v>
       </c>
@@ -4300,8 +4597,11 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>267</v>
       </c>
@@ -4327,8 +4627,11 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>268</v>
       </c>
@@ -4354,8 +4657,11 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>269</v>
       </c>
@@ -4381,8 +4687,11 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>270</v>
       </c>
@@ -4408,8 +4717,11 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>271</v>
       </c>
@@ -4435,8 +4747,11 @@
       <c r="I37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>272</v>
       </c>
@@ -4462,8 +4777,11 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>273</v>
       </c>
@@ -4489,8 +4807,11 @@
       <c r="I39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>274</v>
       </c>
@@ -4516,8 +4837,11 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>275</v>
       </c>
@@ -4543,8 +4867,11 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>276</v>
       </c>
@@ -4570,8 +4897,11 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>277</v>
       </c>
@@ -4597,8 +4927,11 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>278</v>
       </c>
@@ -4624,8 +4957,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>279</v>
       </c>
@@ -4651,8 +4987,11 @@
       <c r="I45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>280</v>
       </c>
@@ -4678,8 +5017,11 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>281</v>
       </c>
@@ -4705,8 +5047,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>282</v>
       </c>
@@ -4732,8 +5077,11 @@
       <c r="I48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>283</v>
       </c>
@@ -4759,8 +5107,11 @@
       <c r="I49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>284</v>
       </c>
@@ -4786,8 +5137,11 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>285</v>
       </c>
@@ -4813,8 +5167,11 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>286</v>
       </c>
@@ -4840,8 +5197,11 @@
       <c r="I52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>287</v>
       </c>
@@ -4867,8 +5227,11 @@
       <c r="I53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>288</v>
       </c>
@@ -4894,8 +5257,11 @@
       <c r="I54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>289</v>
       </c>
@@ -4921,8 +5287,11 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>290</v>
       </c>
@@ -4948,8 +5317,11 @@
       <c r="I56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>291</v>
       </c>
@@ -4977,8 +5349,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>292</v>
       </c>
@@ -5004,8 +5379,11 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>293</v>
       </c>
@@ -5031,8 +5409,11 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>294</v>
       </c>
@@ -5058,8 +5439,11 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>295</v>
       </c>
@@ -5085,8 +5469,11 @@
       <c r="I61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>296</v>
       </c>
@@ -5112,8 +5499,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>297</v>
       </c>
@@ -5139,8 +5529,11 @@
       <c r="I63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>298</v>
       </c>
@@ -5166,8 +5559,11 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>299</v>
       </c>
@@ -5193,8 +5589,11 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>300</v>
       </c>
@@ -5220,8 +5619,11 @@
       <c r="I66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>301</v>
       </c>
@@ -5247,8 +5649,11 @@
       <c r="I67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>302</v>
       </c>
@@ -5274,8 +5679,11 @@
       <c r="I68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>305</v>
       </c>
@@ -5301,8 +5709,11 @@
       <c r="I69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>306</v>
       </c>
@@ -5328,8 +5739,11 @@
       <c r="I70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>307</v>
       </c>
@@ -5354,6 +5768,9 @@
       </c>
       <c r="I71" s="3">
         <v>1</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
